--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Misturas para paes-bolos.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Misturas para paes-bolos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Sol Tradicional 1kg</t>
+          <t>Gelatina Sem Sabor Vermelha Oetker 24gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8416b160-f6b9-40df-9132-8fe58c39c242.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8388da2-1334-487d-a3a6-6c454b93c42b.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891048050064</t>
         </is>
       </c>
     </row>
@@ -488,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta Tradicional 1kg</t>
+          <t>Mistura Bolo Laranja Dr. Oetker 400g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7239cb20-80a1-48b0-9182-b51d6c009e38.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/468be1b5-b800-4957-9314-c9dc2281ac92.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891048061718</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Rosa Branca 1kg</t>
+          <t>Cobertura Kenko 250gr Chocolate</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cda86b3e-8cc4-486a-a6d9-52e461a07be6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c68c15a-e7b1-4018-a51d-fd425bfc0829.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896007866625</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fermento Biologico Fleischimann Inst 10g</t>
+          <t>Manjar Dr Oetker 160gr Coco Caldas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d6de786-2a36-4c59-82d4-2e6e14bb2d8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e012132e-e845-414c-a192-1e2e87cb9c0a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891048044278</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Morango</t>
+          <t>Fermento Biologico Fleischimann Inst 10g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5140df0-9d30-405d-b365-f700cd45d478.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d6de786-2a36-4c59-82d4-2e6e14bb2d8c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898409955327</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Abacaxi</t>
+          <t>Cobert.p/sorvete Cepera 200g Morango</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5d5a7e-b935-4066-8a6d-a6356a08fc12.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6f3e54b-ce20-4105-acae-7a2319e850c9.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896025802568</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fermento Dr.oetker Biologico 10gr</t>
+          <t>Cobert.p/sorvete Cepera 200g Chocolate</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eceda3e0-ea68-45db-93ce-c4fd3f21734d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abeca004-635f-47d5-ad9b-44ce513e2e2f.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896025804111</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fermento Em Po Royal 100g</t>
+          <t>Cobert.p/sorvete Cepera 200g Caramelo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f086d731-baf6-47b3-af4c-be294d821059.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56b8bd94-7b94-457a-9cc0-136be1dcbd10.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896025802568</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Limao</t>
+          <t>Fermento Em Po Quimico Dr.oetker 100gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78fc9393-f6d5-4097-b475-73661e26e118.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d8639d5-8f16-4429-a358-85d868e9703e.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891048040089</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Uva</t>
+          <t>Sagu De Mandioca Wally 500gr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dc4cab6-386f-4942-83ac-5321037fc800.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92d319ef-853a-4803-92d9-92873998e688.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896237500399</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Framboesa</t>
+          <t>Gelatina Diet Dr Oetker 12g Cereja</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7eeff645-420f-486d-a27b-d65e5cba12ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e67704f3-60db-4594-94ec-6fe232d7f1b8.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Cereja</t>
+          <t>Pudim Diet Dr Oetker 25g Coco</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/275fffd5-88a1-4d16-8ca7-18da9282ef08.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19032cb5-dd9f-448f-a671-d5543fb3fa8a.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891048045145</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gelatina Incolor S/sabor Oetker 24gr</t>
+          <t>Pudim Diet Dr Oetker 25g Baunilha</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b03424a-ec93-4e10-98c4-04c5abca4836.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72e716be-c58c-4eaa-ac2d-f6dc9e28d2cb.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891048045114</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Maracuja</t>
+          <t>Gelatina Incolor S/sabor Oetker 24gr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/952971c5-a344-493c-a482-ded26ff1f579.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b03424a-ec93-4e10-98c4-04c5abca4836.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891048050057</t>
         </is>
       </c>
     </row>
@@ -839,7 +914,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fermento Em Po Trad. Dona Benta 100g</t>
+          <t>Maria Mole Dr Oetker Coco 50g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -849,7 +924,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9c4b71e-2745-40ba-b34f-f63a409b9d35.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3da98ea4-5957-490b-8304-ebf0e161718f.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891048051054</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Tutti Frutti</t>
+          <t>Sagu Dr Oetker 150g Morango</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c13cdba-3dfc-45fb-8c41-5ea693652774.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dac71c1f-c0a2-493d-9ecb-d171920ef2fd.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891048064023</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fermento Em Po Quimico Dr.oetker 100gr</t>
+          <t>Sagu Dr Oetker 150g Uva</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d8639d5-8f16-4429-a358-85d868e9703e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97248381-df4a-4837-bcee-9701a166f505.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891048064030</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Amora</t>
+          <t>Po P/ Sorvete Yoki 150g Coco</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/614b7a30-d19d-4289-8d50-6389453406c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99045212-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891095009824</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gelatina Cereja Royal 25gr</t>
+          <t>Po P/ Sorvete Yoki 150g Creme</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e85f0193-2973-4b4b-81fd-906f1063e40b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/994321c8-6e4a-4e68-acd4-f4c521ff741b.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891095009930</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gelatina Sol 20g Cereja</t>
+          <t>Gelatina Diet Dr Oetker 12g Abacaxi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2db98fe3-335b-4ca3-8be3-30c6132ae713.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86262cfc-d9c7-4e17-bb6f-6d11fdcdab87.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891048048979</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gelatina Sol 20g Maracuja</t>
+          <t>Gelatina Diet Dr Oetker 12g Framboesa</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0532345-b85a-47a0-aa4b-24223a9b2a16.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e85cca28-d790-44c3-aaf5-1d68d1720c9b.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Especial Renata 1kg</t>
+          <t>Gelatina Diet Dr Oetker 12g Limao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b82fe72e-5a96-4ae2-8228-1eb40af00d80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf03b234-e77f-4a60-a92b-3f9e798b9438.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fermento Em Po Royal 250g</t>
+          <t>Gelatina Diet Dr Oetker 12g Uva</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8127cd9-be24-4c95-b94b-2d545fbfc8a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbd7d70c-9ecb-4d69-b73d-454ce5c7fcb9.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta Res Esp 1kg</t>
+          <t>Gelatina Diet Dr Oetker 12g Amora</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fffcc79-17e9-4d24-b88e-dd8845289352.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7262baf0-5e05-4227-b398-e11e670aea97.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Abacaxi</t>
+          <t>Fermento Em Po Royal 100g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86262cfc-d9c7-4e17-bb6f-6d11fdcdab87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f086d731-baf6-47b3-af4c-be294d821059.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7893333225003</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gelatina Abacaxi Royal 25gr</t>
+          <t>Gelatina Diet Dr Oetker 12g Morango</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1515b10-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4adfc97e-7857-4d45-96d8-10fa0926620a.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891048048993</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Choco</t>
+          <t>Farinha De Trigo Dona Benta Tradicional 1kg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ad7dd3c-c536-436a-8b40-fade4b777d23.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7239cb20-80a1-48b0-9182-b51d6c009e38.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896005232705</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fermento Em Po Quimico Dr.oetker 200gr</t>
+          <t>Farinha De Trigo Dona Benta C/ferm 1kg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e1c7aac-0930-4103-96ae-6e784dd28cbd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b9f6af8-490d-4926-ae79-1897b9d61873.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896005232705</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gelatina Sol 20g Limão</t>
+          <t>Mistura P/bolo D.benta 450g Coco</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1908b3c9-ee23-40e2-bf97-d83cd2befe03.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da534b56-6394-46ab-be2f-e445fe96051d.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896005272107</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Morango</t>
+          <t>Mistura P/bolo D.benta 450g Festa</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4adfc97e-7857-4d45-96d8-10fa0926620a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b7418bd-5b29-44fa-9c92-76aca63c01eb.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896005272060</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Farinha Trigo Integral Dona Benta 1kg</t>
+          <t>Mistura P Bolo Dona Benta Milho Verde450</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f948908f-343f-4dc0-b885-cb6917e7c147.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7cfd2cf-0843-4ce6-b627-e93b592f594c.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896005272121</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gelatina Royal 25g Morango</t>
+          <t>Mistura P/bolo D.benta 450g Fuba</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1289f8e-2302-4c23-be78-a631dc732cd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9586f5cc-08bd-4c7b-961e-1e9a3368a39e.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896005279182</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Cereja</t>
+          <t>Mistura P/bolo D.benta 450g Cenoura</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e67704f3-60db-4594-94ec-6fe232d7f1b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f662975f-e3a5-45bf-872a-e14bbffb0463.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896005279182</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1522,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Cenoura</t>
+          <t>Mistura P/bolo D.benta 450g Aipim</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1362,7 +1532,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f662975f-e3a5-45bf-872a-e14bbffb0463.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be292cec-43fc-441b-8395-727b964a7641.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896005279182</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Amora</t>
+          <t>Fermento Em Po Royal 250g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7262baf0-5e05-4227-b398-e11e670aea97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8127cd9-be24-4c95-b94b-2d545fbfc8a4.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7893333225003</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta C/ferm 1kg</t>
+          <t>Casquinhas P/ Sorvete Barion 75gr</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b9f6af8-490d-4926-ae79-1897b9d61873.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9c1da1e-7cb9-4787-b70a-3362287bc40a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896018211131</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Choc/avela</t>
+          <t>Farinha De Trigo Especial Renata 1kg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22fbd022-99cd-4c1f-84bf-93bd61ce7372.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b82fe72e-5a96-4ae2-8228-1eb40af00d80.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896022200961</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mistura Para Bolo Dona Benta 450g Laranja</t>
+          <t>Mistura Bolo Baunilha Dr. Oetker 400g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8903a77-796a-4107-a7d1-382ed35ead4c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9947c24-61c8-4e32-8158-83a32e35aff7.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7891048061688</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Maria Mole Dr Oetker Coco 50g</t>
+          <t>Fermento Em Po Quimico Dr.oetker 200gr</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3da98ea4-5957-490b-8304-ebf0e161718f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e1c7aac-0930-4103-96ae-6e784dd28cbd.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891048040089</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Limao</t>
+          <t>Pudim Dr Oetker 50gr Baunilha</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf03b234-e77f-4a60-a92b-3f9e798b9438.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01fb8627-c609-427a-ae8d-1e3771b10d81.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891048045114</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Uva</t>
+          <t>Pudim Dr Oetker 50gr Choc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbd7d70c-9ecb-4d69-b73d-454ce5c7fcb9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/667c7c53-d05d-4727-bd5a-6ca8f70dfb2d.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891048045138</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gelatina Diet Dr Oetker 12g Framboesa</t>
+          <t>Flan Dr Oetker 30g Coco</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e85cca28-d790-44c3-aaf5-1d68d1720c9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27d4127e-d253-41bd-b245-5b955ea70ee0.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7891048047095</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1810,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bolo De Caneca Dr Oetker 70g Brownie</t>
+          <t>Bolo De Caneca Dr Oetker 70g Choc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1605,7 +1820,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad182b5-c906-44ef-98aa-2224adec3a8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef6f3e7-34af-4df5-aa73-6c3686f0da3c.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7891048070215</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Coco</t>
+          <t>Bolo De Caneca Dr Oetker 70g Formigueiro</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da534b56-6394-46ab-be2f-e445fe96051d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c060a7d-70e2-4643-9362-c69eefbcd758.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891048070246</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gelatina Limao Royal 25g</t>
+          <t>Flan Dr Oetker 40g Choc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82317fdd-1197-4a2e-9f8e-0f2a7f09ef9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4822188-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891048047101</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gelatina Royal Uva 25g</t>
+          <t>Bolo De Caneca Dr Oetker 70g Brigadeiro</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/261830e6-0ec0-424e-93de-e8c901bb57ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afa27693-232a-499d-ae53-d98a9cb8965f.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891048070253</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gelatina Zero Royal 12g Cereja</t>
+          <t>Farinha Trigo Integral Dona Benta 1kg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b55cc72d-5c5c-4f10-a61b-5affca95f6e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f948908f-343f-4dc0-b885-cb6917e7c147.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896005232705</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sagu De Mandioca Wally 500gr</t>
+          <t>Farinha De Trigo Dona Benta Res Esp 1kg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92d319ef-853a-4803-92d9-92873998e688.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fffcc79-17e9-4d24-b88e-dd8845289352.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896005212905</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pudim Diet Dr Oetker 30g Chocolate</t>
+          <t>Bolo De Caneca Dr Oetker 70g Brownie</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42e1fea8-1e86-4cf7-a2ba-52d0b8b99ded.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad182b5-c906-44ef-98aa-2224adec3a8d.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891048070284</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pudim Dr Oetker 50gr Baunilha</t>
+          <t>Mist Bolo Oetker Formigueiro 400g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01fb8627-c609-427a-ae8d-1e3771b10d81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5894a690-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891048070246</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bolo De Caneca Dr Oetker 70g Brigadeiro</t>
+          <t>Mistura P/bolo D.benta 450g Choco</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afa27693-232a-499d-ae53-d98a9cb8965f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ad7dd3c-c536-436a-8b40-fade4b777d23.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896005279182</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Dentaduras</t>
+          <t>Mistura P/bolo D.benta 450g Choc/avela</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb8f9b59-59c3-4b4c-902a-8f4a9e9ca831.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22fbd022-99cd-4c1f-84bf-93bd61ce7372.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896005216927</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2130,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Bananas</t>
+          <t>Gelatina Dr Oetker 20gr Abacaxi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1875,7 +2140,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb6c68b-ba27-4269-ba15-10fa1c9d8227.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5d5a7e-b935-4066-8a6d-a6356a08fc12.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891048048979</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischmann 390g Laranja Cremoso</t>
+          <t>Gelatina Dr Oetker 20gr Maracuja</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/147dd858-7f99-4df4-9d83-a845a661c7d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/952971c5-a344-493c-a482-ded26ff1f579.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891048084526</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gelatina Royal 25g Maracuja</t>
+          <t>Gelatina Dr Oetker 20gr Morango</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99410e5b-1717-4509-ac07-ed9e56b94304.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5140df0-9d30-405d-b365-f700cd45d478.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891048084526</t>
         </is>
       </c>
     </row>
@@ -1946,7 +2226,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gelatina Dr Oetker 20gr Beijos</t>
+          <t>Gelatina Dr Oetker 20gr Tutti Frutti</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1956,7 +2236,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7babc98a-1e1d-41e8-83c6-2a9e91b35eb7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c13cdba-3dfc-45fb-8c41-5ea693652774.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891048050675</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gelatina Zero Royal 12g Uva</t>
+          <t>Gelatina Dr Oetker 20gr Uva</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc4fe4d6-8b33-4f82-b8a0-cb1a9cb3d194.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dc4cab6-386f-4942-83ac-5321037fc800.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891048084540</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischmann 390g Choco Extracrem</t>
+          <t>Gelatina Dr Oetker 20gr Amora</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26a2a677-c712-4d50-a7e7-9f4d66feb8f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/614b7a30-d19d-4289-8d50-6389453406c1.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891048084540</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gelatina Zero Royal 12g Framboesa</t>
+          <t>Gelatina Dr Oetker 20gr Cereja</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee872125-a216-4cc5-88a6-0f5084ab8f12.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/275fffd5-88a1-4d16-8ca7-18da9282ef08.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891048084540</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bolo De Caneca Dr Oetker 70g Choc</t>
+          <t>Gelatina Dr Oetker 20gr Framboesa</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef6f3e7-34af-4df5-aa73-6c3686f0da3c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7eeff645-420f-486d-a27b-d65e5cba12ac.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891048084526</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischmann 390g Limão Crem</t>
+          <t>Gelatina Dr Oetker 20gr Limao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ddd9adb-bfe5-4ed9-bb10-9c67b3fa42b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78fc9393-f6d5-4097-b475-73661e26e118.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891048084540</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gelatina Sem Sabor Vermelha Oetker 24gr</t>
+          <t>Gelatina Natural Life 12gr Abacaxi/chia</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8388da2-1334-487d-a3a6-6c454b93c42b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92c73357-7d48-46ae-9d34-7c137f8dcb17.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896256070170</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pudim Diet Dr Oetker 25g Baunilha</t>
+          <t>Gelatina Natural Life 12gr Cerej/linhaca</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72e716be-c58c-4eaa-ac2d-f6dc9e28d2cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5e661cc-5c56-4c53-9b69-0a03d83f26d2.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896256070149</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pudim Dr Oetker 50gr Coco</t>
+          <t>Gelatina Natural Life 12gr Framb/linhaca</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd2babe-a016-48e8-926a-06a6ced692ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a6fd678-633b-41f9-bad9-f25f2824f922.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896256070149</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mistura Bolo Laranja Dr. Oetker 400g</t>
+          <t>Gelatina Natural Life 12gr Hibisc/morang</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/468be1b5-b800-4957-9314-c9dc2281ac92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe66dcd9-1a5a-449d-90aa-3810011ec9f8.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896256070194</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gelatina Royal Sem Sabor 24g</t>
+          <t>Gelatina Natural Life 12gr Mor/linhaca</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2d117d1-c86a-437d-82ac-5744644e7829.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6df7b9e-0f99-4e48-9ef7-0c592bf81796.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896256070194</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2578,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gelatina Natural Life 12gr Abacaxi/chia</t>
+          <t>Gelatina Natural Life 12gr Farinha Uva</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2253,7 +2588,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92c73357-7d48-46ae-9d34-7c137f8dcb17.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/171c44e3-474b-4d94-8c45-f7eff8c81c83.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896256070149</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mistura P Bolo Dona Benta Milho Verde450</t>
+          <t>Mist P/bolo Fleischimann 390g Choco</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7cfd2cf-0843-4ce6-b627-e93b592f594c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1b97e9-2965-4268-ab02-6ab8b576cfc5.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7897309408575</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gelatina Natural Life 12gr Cerej/linhaca</t>
+          <t>Chanti Neve Oetekr 50g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5e661cc-5c56-4c53-9b69-0a03d83f26d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb7fb331-4e07-47b2-b00b-5308c30eed16.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7891048045039</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pudim Dr Oetker 50gr Choc</t>
+          <t>Fermento Po Quimico Fleischmann 100gr</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/667c7c53-d05d-4727-bd5a-6ca8f70dfb2d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40f0f323-6984-4a1a-993a-b5e453660196.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7898409951046</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Festa</t>
+          <t>Pudim Zero Acucar Lowcucar 25g Choc</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b7418bd-5b29-44fa-9c92-76aca63c01eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b43246ef-39cb-43d2-8215-af493c6850ea.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896292006003</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Gelatina Natural Life 12gr Hibisc/morang</t>
+          <t>Pudim Dr Oetker 50gr Coco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe66dcd9-1a5a-449d-90aa-3810011ec9f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd2babe-a016-48e8-926a-06a6ced692ee.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7891048045145</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischmann 4000g Choco Mouse</t>
+          <t>Mist P/bolo Fleischmann 390g Aipim</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cd4e1f9-b537-4dad-87f9-deced8043f25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47c21d5f-c082-4185-9fec-11b23c1b87fc.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898331012525</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pudim Diet Dr Oetker 25g Coco</t>
+          <t>Mist P/bolo Fleischmann 390g Choco Extracrem</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19032cb5-dd9f-448f-a671-d5543fb3fa8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26a2a677-c712-4d50-a7e7-9f4d66feb8f7.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7898331012525</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Aipim</t>
+          <t>Mist P/bolo Fleischmann 390g Laranja Cremoso</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be292cec-43fc-441b-8395-727b964a7641.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/147dd858-7f99-4df4-9d83-a845a661c7d2.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7897309408506</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mistura Bolo Baunilha Dr. Oetker 400g</t>
+          <t>Mist P/bolo Fleischmann 390g Limão Crem</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9947c24-61c8-4e32-8158-83a32e35aff7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ddd9adb-bfe5-4ed9-bb10-9c67b3fa42b4.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7898331012532</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gelatina Natural Life 12gr Mor/linhaca</t>
+          <t>Mist P/bolo Fleischmann 390g Milho Crem</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6df7b9e-0f99-4e48-9ef7-0c592bf81796.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/106c8e4b-6aac-4437-a2fb-4aaf56490281.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7898331012549</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mistura P/bolo D.benta 450g Fuba</t>
+          <t>Mist P/ Bolo Dr Oetker 300g Brig+conf</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9586f5cc-08bd-4c7b-961e-1e9a3368a39e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00fd3983-c292-43eb-adbf-076b5593ffe0.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891048061824</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sagu Dr Oetker 150g Uva</t>
+          <t>Mist P/ Bolo Dr Oetker 300g Cenoura+confeitos</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97248381-df4a-4837-bcee-9701a166f505.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/496d52a8-3aa8-4c49-837a-46dd0600799b.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891048061824</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2994,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mistura Para Bolo Fleischmann 400g Brownie</t>
+          <t>Mist P/bolo Fleischmann 4000g Choco Mouse</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2604,7 +3004,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03b08c1a-2a2a-45f5-b661-a584437dddf2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cd4e1f9-b537-4dad-87f9-deced8043f25.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7898331012761</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischmann 390g Aipim</t>
+          <t>Mistura Para Bolo Fleischmann 400g Brownie</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47c21d5f-c082-4185-9fec-11b23c1b87fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03b08c1a-2a2a-45f5-b661-a584437dddf2.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7898331012969</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mist P/ Bolo Dr Oetker 300g Cenoura+confeitos</t>
+          <t>Gelatina Sol 20g Cereja</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/496d52a8-3aa8-4c49-837a-46dd0600799b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2db98fe3-335b-4ca3-8be3-30c6132ae713.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896005210628</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mist P/bolo Fleischimann 390g Choco</t>
+          <t>Gelatina Sol 20g Limão</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1b97e9-2965-4268-ab02-6ab8b576cfc5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1908b3c9-ee23-40e2-bf97-d83cd2befe03.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896005210697</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Flan Dr Oetker 40g Choc</t>
+          <t>Gelatina Dr Oetker 20gr Bananas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4822188-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb6c68b-ba27-4269-ba15-10fa1c9d8227.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891048084540</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gelatina Natural Life 12gr Framb/linhaca</t>
+          <t>Gelatina Dr Oetker 20gr Beijos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a6fd678-633b-41f9-bad9-f25f2824f922.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7babc98a-1e1d-41e8-83c6-2a9e91b35eb7.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891048084526</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mist Bolo Oetker Formigueiro 400g</t>
+          <t>Gelatina Dr Oetker 20gr Dentaduras</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5894a690-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb8f9b59-59c3-4b4c-902a-8f4a9e9ca831.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891048084526</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Manjar Dr Oetker 160gr Coco Caldas</t>
+          <t>Mistura Para Bolo Urbano 300g Chocolate</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e012132e-e845-414c-a192-1e2e87cb9c0a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5548c5e-8c05-4c4b-80a0-083beb324681.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896038300426</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fermento Po Quimico Fleischmann 100gr</t>
+          <t>Mistura Para Bolo De Coco Urbano 300gr</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40f0f323-6984-4a1a-993a-b5e453660196.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cddc116-4184-4928-88fc-c959a32fb09b.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896038300433</t>
         </is>
       </c>
     </row>
@@ -2837,584 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bolo De Caneca Dr Oetker 70g Formigueiro</t>
+          <t>Mistura Para Bolo Urbano 300g Laranja</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c060a7d-70e2-4643-9362-c69eefbcd758.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Flan Dr Oetker 30g Coco</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27d4127e-d253-41bd-b245-5b955ea70ee0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Gelatina Natural Life 12gr Farinha Uva</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/171c44e3-474b-4d94-8c45-f7eff8c81c83.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Cobert.p/sorvete Cepera 200g Chocolate</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abeca004-635f-47d5-ad9b-44ce513e2e2f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Cobert.p/sorvete Cepera 200g Caramelo</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56b8bd94-7b94-457a-9cc0-136be1dcbd10.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Casquinhas P/ Sorvete Barion 75gr</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9c1da1e-7cb9-4787-b70a-3362287bc40a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Sagu Dr Oetker 150g Morango</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dac71c1f-c0a2-493d-9ecb-d171920ef2fd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Mist P/bolo Fleischmann 390g Milho Crem</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/106c8e4b-6aac-4437-a2fb-4aaf56490281.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Mist P/ Bolo Dr Oetker 300g Brig+conf</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00fd3983-c292-43eb-adbf-076b5593ffe0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolo Urbano 300g Chocolate</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5548c5e-8c05-4c4b-80a0-083beb324681.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Chanti Neve Oetekr 50g</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb7fb331-4e07-47b2-b00b-5308c30eed16.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Pudim Zero Acucar Lowcucar 25g Choc</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b43246ef-39cb-43d2-8215-af493c6850ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Cobert.p/sorvete Cepera 200g Morango</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6f3e54b-ce20-4105-acae-7a2319e850c9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolinho De Chuva Dona Benta 260g Tradicional</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4f05464-cd56-40a9-88cc-e68cb1891b0a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Cobertura Kenko 250gr Chocolate</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c68c15a-e7b1-4018-a51d-fd425bfc0829.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Gelatina Dr Oetker Em Folha Incolor 10g</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/904fbd44-f74e-4f0f-bb8a-02cee2cb2be6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Po P/ Sorvete Yoki 150g Creme</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/994321c8-6e4a-4e68-acd4-f4c521ff741b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolo De Coco Urbano 300gr</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cddc116-4184-4928-88fc-c959a32fb09b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolo Urbano 300g Laranja</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15628bf6-334f-41c1-9663-e0be615a64a9.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Po P/ Sorvete Yoki 150g Coco</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99045212-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolinho De Chuva Dona Benta 260g Banana</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52c8a195-46a1-46d4-bd5c-f0e5c4f32615.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Misturas para paes/bolos</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Mistura Para Bolinho De Chuva Dona Benta 260g Maça</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/519eab32-fb09-400e-a2e1-0c117786a115.jpg</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896038300440</t>
         </is>
       </c>
     </row>
